--- a/StructureDefinition-packagedMedicinalProduct.xlsx
+++ b/StructureDefinition-packagedMedicinalProduct.xlsx
@@ -4288,7 +4288,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>182</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>40</v>
